--- a/uploaded/pok/a - Copy.xlsx
+++ b/uploaded/pok/a - Copy.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="POKREV5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="596">
   <si>
     <t>kode</t>
   </si>
@@ -120,6 +120,9 @@
     <t xml:space="preserve">    -     makalah seminar dan laporan penelitian dosen</t>
   </si>
   <si>
+    <t xml:space="preserve">    -     Pencetakan publikasi penelitian PKMKS</t>
+  </si>
+  <si>
     <t>BUKU</t>
   </si>
   <si>
@@ -153,9 +156,6 @@
     <t xml:space="preserve">    -     honor desain grafis</t>
   </si>
   <si>
-    <t xml:space="preserve">    -     honor moderator seminar penelitian dosen</t>
-  </si>
-  <si>
     <t>OJ</t>
   </si>
   <si>
@@ -183,6 +183,9 @@
     <t>OB</t>
   </si>
   <si>
+    <t xml:space="preserve">    -     panitia kelompok kerja seminar kajian metodologi statistik</t>
+  </si>
+  <si>
     <t xml:space="preserve">    -     honor koordinator peneliti</t>
   </si>
   <si>
@@ -1794,19 +1797,16 @@
     <t xml:space="preserve">    -     Pengadaan Komputer/PC</t>
   </si>
   <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>ORANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -     Pencetakan publikasi penelitian PK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -     panitia kelompok kerja seminar kajian</t>
+    <t xml:space="preserve">    -     Pengadaan UPS</t>
+  </si>
+  <si>
+    <t>Pengadaan Peralatan Komunikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -     Pengadaan CCTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -     ini tambahan</t>
   </si>
 </sst>
 </file>
@@ -2124,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2289,7 @@
         <v>975</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>21000</v>
@@ -2312,7 +2312,7 @@
         <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>591</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>21000</v>
@@ -2348,26 +2348,21 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>595</v>
       </c>
       <c r="C10">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>592</v>
+        <v>89</v>
       </c>
       <c r="E10">
         <v>68000</v>
       </c>
       <c r="F10">
-        <v>10200000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
+        <f>C10*E10</f>
+        <v>3400000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2375,13 +2370,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>593</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>68000</v>
@@ -2398,10 +2393,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -2410,7 +2405,7 @@
         <v>68000</v>
       </c>
       <c r="F12">
-        <v>68000</v>
+        <v>10200000</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
@@ -2421,10 +2416,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -2433,7 +2428,7 @@
         <v>68000</v>
       </c>
       <c r="F13">
-        <v>16320000</v>
+        <v>6800000</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
@@ -2444,10 +2439,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -2456,7 +2451,7 @@
         <v>68000</v>
       </c>
       <c r="F14">
-        <v>2040000</v>
+        <v>16320000</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -2467,19 +2462,19 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>14000</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1400</v>
+        <v>68000</v>
       </c>
       <c r="F15">
-        <v>19600000</v>
+        <v>2040000</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -2490,10 +2485,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>250</v>
+        <v>14000</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -2502,7 +2497,7 @@
         <v>1400</v>
       </c>
       <c r="F16">
-        <v>350000</v>
+        <v>19600000</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
@@ -2513,10 +2508,10 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>3000</v>
+        <v>250</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -2525,7 +2520,7 @@
         <v>1400</v>
       </c>
       <c r="F17">
-        <v>4200000</v>
+        <v>350000</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -2536,19 +2531,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>594</v>
+        <v>32</v>
       </c>
       <c r="C18">
+        <v>3000</v>
+      </c>
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
       <c r="E18">
-        <v>100000</v>
+        <v>1400</v>
       </c>
       <c r="F18">
-        <v>3000000</v>
+        <v>4200000</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -2556,48 +2551,48 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
       <c r="E19">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F19">
-        <v>215240000</v>
+        <v>3000000</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1000000</v>
+        <v>215240000</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2605,19 +2600,19 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="F21">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="G21" t="s">
         <v>9</v>
@@ -2634,13 +2629,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="F22">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -2654,16 +2649,16 @@
         <v>40</v>
       </c>
       <c r="C23">
-        <v>225</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E23">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="F23">
-        <v>45000000</v>
+        <v>300000</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
@@ -2674,19 +2669,19 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>225</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="C24">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
       <c r="E24">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="F24">
-        <v>10800000</v>
+        <v>45000000</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
@@ -2700,16 +2695,16 @@
         <v>43</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25">
-        <v>180000</v>
+        <v>300000</v>
       </c>
       <c r="F25">
-        <v>360000</v>
+        <v>10800000</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
@@ -2723,16 +2718,16 @@
         <v>44</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E26">
-        <v>700000</v>
+        <v>180000</v>
       </c>
       <c r="F26">
-        <v>21000000</v>
+        <v>360000</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -2881,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -2904,7 +2899,7 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>12</v>
@@ -2927,7 +2922,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35">
         <v>12</v>
@@ -2950,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>432</v>
@@ -2973,13 +2968,13 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37">
         <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E37">
         <v>80000</v>
@@ -2993,10 +2988,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3019,13 +3014,13 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39">
         <v>10000000</v>
@@ -3042,7 +3037,7 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -3065,7 +3060,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -3088,7 +3083,7 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>9</v>
@@ -3111,7 +3106,7 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>18</v>
@@ -3134,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>9</v>
@@ -3157,7 +3152,7 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -3177,10 +3172,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3203,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3226,7 +3221,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3246,10 +3241,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3272,7 +3267,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50">
         <v>70</v>
@@ -3295,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51">
         <v>10</v>
@@ -3318,7 +3313,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -3341,7 +3336,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -3364,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -3387,7 +3382,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55">
         <v>10</v>
@@ -3410,7 +3405,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -3433,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -3456,7 +3451,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -3479,7 +3474,7 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59">
         <v>8</v>
@@ -3499,10 +3494,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3525,13 +3520,13 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61">
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E61">
         <v>833334</v>
@@ -3548,13 +3543,13 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <v>403334</v>
@@ -3571,13 +3566,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63">
         <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E63">
         <v>2128000</v>
@@ -3594,13 +3589,13 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64">
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E64">
         <v>830000</v>
@@ -3617,13 +3612,13 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65">
         <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E65">
         <v>540000</v>
@@ -3640,13 +3635,13 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66">
         <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E66">
         <v>415000</v>
@@ -3663,13 +3658,13 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67">
         <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E67">
         <v>3053000</v>
@@ -3686,13 +3681,13 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E68">
         <v>870000</v>
@@ -3709,13 +3704,13 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E69">
         <v>530000</v>
@@ -3732,13 +3727,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E70">
         <v>3310000</v>
@@ -3755,13 +3750,13 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71">
         <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E71">
         <v>850000</v>
@@ -3778,13 +3773,13 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72">
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E72">
         <v>410000</v>
@@ -3801,13 +3796,13 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73">
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E73">
         <v>3310000</v>
@@ -3824,13 +3819,13 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C74">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E74">
         <v>850000</v>
@@ -3847,13 +3842,13 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C75">
         <v>12</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E75">
         <v>410000</v>
@@ -3870,13 +3865,13 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C76">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E76">
         <v>3310000</v>
@@ -3893,13 +3888,13 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C77">
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E77">
         <v>850000</v>
@@ -3916,13 +3911,13 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78">
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E78">
         <v>410000</v>
@@ -3939,13 +3934,13 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C79">
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E79">
         <v>3310000</v>
@@ -3959,10 +3954,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -3985,7 +3980,7 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C81">
         <v>60</v>
@@ -4008,7 +4003,7 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82">
         <v>60</v>
@@ -4031,7 +4026,7 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C83">
         <v>30</v>
@@ -4051,10 +4046,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4077,13 +4072,13 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85">
         <v>3000</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85">
         <v>25000</v>
@@ -4097,10 +4092,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4146,7 +4141,7 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C88">
         <v>40</v>
@@ -4169,7 +4164,7 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C89">
         <v>40</v>
@@ -4192,7 +4187,7 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90">
         <v>40</v>
@@ -4215,7 +4210,7 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91">
         <v>40</v>
@@ -4238,7 +4233,7 @@
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C92">
         <v>40</v>
@@ -4261,7 +4256,7 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C93">
         <v>40</v>
@@ -4284,13 +4279,13 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C94">
         <v>1200</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E94">
         <v>65000</v>
@@ -4307,7 +4302,7 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C95">
         <v>18000</v>
@@ -4330,13 +4325,13 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C96">
         <v>7000</v>
       </c>
       <c r="D96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E96">
         <v>7000</v>
@@ -4353,7 +4348,7 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C97">
         <v>200000</v>
@@ -4376,13 +4371,13 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C98">
         <v>550</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E98">
         <v>85000</v>
@@ -4399,13 +4394,13 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C99">
         <v>600</v>
       </c>
       <c r="D99" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E99">
         <v>25000</v>
@@ -4422,7 +4417,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100">
         <v>20000</v>
@@ -4442,10 +4437,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4468,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -4491,7 +4486,7 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C103">
         <v>18</v>
@@ -4514,7 +4509,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104">
         <v>6</v>
@@ -4537,7 +4532,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C105">
         <v>6</v>
@@ -4560,7 +4555,7 @@
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C106">
         <v>30</v>
@@ -4583,7 +4578,7 @@
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -4606,7 +4601,7 @@
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -4629,7 +4624,7 @@
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C109">
         <v>15</v>
@@ -4652,7 +4647,7 @@
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C110">
         <v>14</v>
@@ -4675,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C111">
         <v>76</v>
@@ -4695,10 +4690,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B112" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -4721,7 +4716,7 @@
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -4744,7 +4739,7 @@
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4767,13 +4762,13 @@
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C115">
         <v>560</v>
       </c>
       <c r="D115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E115">
         <v>125000</v>
@@ -4787,10 +4782,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -4813,13 +4808,13 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C117">
         <v>40</v>
       </c>
       <c r="D117" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E117">
         <v>830000</v>
@@ -4833,10 +4828,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B118" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4859,7 +4854,7 @@
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C119">
         <v>10</v>
@@ -4879,10 +4874,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -4905,13 +4900,13 @@
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C121">
         <v>30</v>
       </c>
       <c r="D121" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E121">
         <v>6146000</v>
@@ -4928,13 +4923,13 @@
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C122">
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E122">
         <v>6916000</v>
@@ -4951,13 +4946,13 @@
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C123">
         <v>500</v>
       </c>
       <c r="D123" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E123">
         <v>3896000</v>
@@ -4974,13 +4969,13 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C124">
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E124">
         <v>6036000</v>
@@ -4997,13 +4992,13 @@
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
       <c r="D125" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E125">
         <v>6916000</v>
@@ -5020,13 +5015,13 @@
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C126">
         <v>80</v>
       </c>
       <c r="D126" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E126">
         <v>6806500</v>
@@ -5040,10 +5035,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -5066,13 +5061,13 @@
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C128">
         <v>250</v>
       </c>
       <c r="D128" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E128">
         <v>200000</v>
@@ -5086,10 +5081,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B129" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -5135,7 +5130,7 @@
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C131">
         <v>60</v>
@@ -5158,7 +5153,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C132">
         <v>1300</v>
@@ -5181,7 +5176,7 @@
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C133">
         <v>300</v>
@@ -5204,7 +5199,7 @@
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C134">
         <v>4000</v>
@@ -5227,7 +5222,7 @@
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C135">
         <v>2000</v>
@@ -5250,7 +5245,7 @@
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C136">
         <v>120000</v>
@@ -5273,13 +5268,13 @@
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C137">
         <v>500</v>
       </c>
       <c r="D137" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E137">
         <v>170000</v>
@@ -5296,13 +5291,13 @@
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C138">
         <v>500</v>
       </c>
       <c r="D138" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E138">
         <v>75000</v>
@@ -5319,13 +5314,13 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C139">
         <v>600</v>
       </c>
       <c r="D139" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E139">
         <v>75000</v>
@@ -5342,13 +5337,13 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C140">
         <v>600</v>
       </c>
       <c r="D140" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E140">
         <v>20000</v>
@@ -5365,7 +5360,7 @@
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C141">
         <v>2000</v>
@@ -5388,7 +5383,7 @@
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C142">
         <v>5</v>
@@ -5408,10 +5403,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -5434,13 +5429,13 @@
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C144">
         <v>260</v>
       </c>
       <c r="D144" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E144">
         <v>10000</v>
@@ -5457,13 +5452,13 @@
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C145">
         <v>500</v>
       </c>
       <c r="D145" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E145">
         <v>150000</v>
@@ -5480,13 +5475,13 @@
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C146">
         <v>500</v>
       </c>
       <c r="D146" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E146">
         <v>300000</v>
@@ -5503,7 +5498,7 @@
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C147">
         <v>5532</v>
@@ -5526,13 +5521,13 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C148">
         <v>2088</v>
       </c>
       <c r="D148" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E148">
         <v>85000</v>
@@ -5549,7 +5544,7 @@
         <v>9</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C149">
         <v>24348</v>
@@ -5572,13 +5567,13 @@
         <v>9</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C150">
         <v>500</v>
       </c>
       <c r="D150" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E150">
         <v>175000</v>
@@ -5595,7 +5590,7 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C151">
         <v>12</v>
@@ -5618,7 +5613,7 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C152">
         <v>44</v>
@@ -5641,7 +5636,7 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C153">
         <v>12</v>
@@ -5664,7 +5659,7 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C154">
         <v>8</v>
@@ -5687,7 +5682,7 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C155">
         <v>24</v>
@@ -5710,7 +5705,7 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C156">
         <v>8</v>
@@ -5733,7 +5728,7 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C157">
         <v>8</v>
@@ -5756,7 +5751,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C158">
         <v>320</v>
@@ -5779,13 +5774,13 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C159">
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E159">
         <v>250000</v>
@@ -5802,13 +5797,13 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C160">
         <v>26190</v>
       </c>
       <c r="D160" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E160">
         <v>100000</v>
@@ -5825,13 +5820,13 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C161">
         <v>490</v>
       </c>
       <c r="D161" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E161">
         <v>90000</v>
@@ -5848,13 +5843,13 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C162">
         <v>470</v>
       </c>
       <c r="D162" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E162">
         <v>90000</v>
@@ -5868,10 +5863,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -5894,7 +5889,7 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C164">
         <v>10</v>
@@ -5917,7 +5912,7 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C165">
         <v>20</v>
@@ -5940,7 +5935,7 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C166">
         <v>15</v>
@@ -5963,13 +5958,13 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C167">
         <v>16</v>
       </c>
       <c r="D167" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E167">
         <v>2000000</v>
@@ -5986,13 +5981,13 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E168">
         <v>5000000</v>
@@ -6009,13 +6004,13 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E169">
         <v>5000000</v>
@@ -6032,13 +6027,13 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C170">
         <v>300</v>
       </c>
       <c r="D170" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E170">
         <v>30000</v>
@@ -6055,7 +6050,7 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -6075,10 +6070,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B172" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -6101,7 +6096,7 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -6124,7 +6119,7 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -6144,10 +6139,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B175" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -6170,13 +6165,13 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C176">
         <v>900</v>
       </c>
       <c r="D176" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E176">
         <v>12000</v>
@@ -6193,13 +6188,13 @@
         <v>9</v>
       </c>
       <c r="B177" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C177">
         <v>1600</v>
       </c>
       <c r="D177" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E177">
         <v>12000</v>
@@ -6213,10 +6208,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B178" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -6239,7 +6234,7 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C179">
         <v>30</v>
@@ -6262,7 +6257,7 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C180">
         <v>20</v>
@@ -6285,7 +6280,7 @@
         <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C181">
         <v>12</v>
@@ -6308,7 +6303,7 @@
         <v>9</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C182">
         <v>30</v>
@@ -6331,7 +6326,7 @@
         <v>9</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C183">
         <v>10</v>
@@ -6354,7 +6349,7 @@
         <v>9</v>
       </c>
       <c r="B184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C184">
         <v>10</v>
@@ -6374,10 +6369,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B185" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -6400,13 +6395,13 @@
         <v>9</v>
       </c>
       <c r="B186" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C186">
         <v>40</v>
       </c>
       <c r="D186" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E186">
         <v>5682000</v>
@@ -6423,13 +6418,13 @@
         <v>9</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C187">
         <v>30</v>
       </c>
       <c r="D187" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E187">
         <v>6160500</v>
@@ -6446,13 +6441,13 @@
         <v>9</v>
       </c>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C188">
         <v>20</v>
       </c>
       <c r="D188" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E188">
         <v>5696400</v>
@@ -6469,13 +6464,13 @@
         <v>9</v>
       </c>
       <c r="B189" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C189">
         <v>20</v>
       </c>
       <c r="D189" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E189">
         <v>6160500</v>
@@ -6492,13 +6487,13 @@
         <v>9</v>
       </c>
       <c r="B190" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C190">
         <v>6</v>
       </c>
       <c r="D190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E190">
         <v>6383000</v>
@@ -6515,13 +6510,13 @@
         <v>9</v>
       </c>
       <c r="B191" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
       <c r="D191" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E191">
         <v>5482000</v>
@@ -6535,10 +6530,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B192" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -6561,7 +6556,7 @@
         <v>9</v>
       </c>
       <c r="B193" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C193">
         <v>1600</v>
@@ -6584,7 +6579,7 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C194">
         <v>10</v>
@@ -6604,10 +6599,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B195" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -6630,13 +6625,13 @@
         <v>9</v>
       </c>
       <c r="B196" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C196">
         <v>200</v>
       </c>
       <c r="D196" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E196">
         <v>200000</v>
@@ -6653,13 +6648,13 @@
         <v>9</v>
       </c>
       <c r="B197" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C197">
         <v>200</v>
       </c>
       <c r="D197" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E197">
         <v>200000</v>
@@ -6676,7 +6671,7 @@
         <v>9</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C198">
         <v>200</v>
@@ -6699,13 +6694,13 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C199">
         <v>200</v>
       </c>
       <c r="D199" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E199">
         <v>200000</v>
@@ -6722,7 +6717,7 @@
         <v>9</v>
       </c>
       <c r="B200" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C200">
         <v>200</v>
@@ -6742,10 +6737,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B201" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -6768,13 +6763,13 @@
         <v>9</v>
       </c>
       <c r="B202" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C202">
         <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E202">
         <v>6160500</v>
@@ -6788,10 +6783,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B203" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -6814,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -6837,7 +6832,7 @@
         <v>9</v>
       </c>
       <c r="B205" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -6860,13 +6855,13 @@
         <v>9</v>
       </c>
       <c r="B206" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E206">
         <v>20000000</v>
@@ -6880,10 +6875,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -6921,7 +6916,7 @@
         <v>1685650000</v>
       </c>
       <c r="G208" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -6929,13 +6924,13 @@
         <v>9</v>
       </c>
       <c r="B209" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C209">
         <v>400</v>
       </c>
       <c r="D209" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E209">
         <v>65000</v>
@@ -6952,13 +6947,13 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C210">
         <v>600</v>
       </c>
       <c r="D210" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E210">
         <v>65000</v>
@@ -6975,13 +6970,13 @@
         <v>9</v>
       </c>
       <c r="B211" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C211">
         <v>800</v>
       </c>
       <c r="D211" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E211">
         <v>65000</v>
@@ -6998,13 +6993,13 @@
         <v>9</v>
       </c>
       <c r="B212" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C212">
         <v>600</v>
       </c>
       <c r="D212" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E212">
         <v>65000</v>
@@ -7021,13 +7016,13 @@
         <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C213">
         <v>800</v>
       </c>
       <c r="D213" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E213">
         <v>65000</v>
@@ -7044,13 +7039,13 @@
         <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C214">
         <v>1600</v>
       </c>
       <c r="D214" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E214">
         <v>65000</v>
@@ -7067,13 +7062,13 @@
         <v>9</v>
       </c>
       <c r="B215" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C215">
         <v>60</v>
       </c>
       <c r="D215" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E215">
         <v>65000</v>
@@ -7090,13 +7085,13 @@
         <v>9</v>
       </c>
       <c r="B216" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C216">
         <v>1600</v>
       </c>
       <c r="D216" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E216">
         <v>65000</v>
@@ -7113,13 +7108,13 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C217">
         <v>100</v>
       </c>
       <c r="D217" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E217">
         <v>65000</v>
@@ -7136,13 +7131,13 @@
         <v>9</v>
       </c>
       <c r="B218" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C218">
         <v>1000</v>
       </c>
       <c r="D218" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E218">
         <v>65000</v>
@@ -7159,13 +7154,13 @@
         <v>9</v>
       </c>
       <c r="B219" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C219">
         <v>50</v>
       </c>
       <c r="D219" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E219">
         <v>65000</v>
@@ -7182,13 +7177,13 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C220">
         <v>800</v>
       </c>
       <c r="D220" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E220">
         <v>65000</v>
@@ -7205,13 +7200,13 @@
         <v>9</v>
       </c>
       <c r="B221" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C221">
         <v>1100</v>
       </c>
       <c r="D221" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E221">
         <v>65000</v>
@@ -7228,13 +7223,13 @@
         <v>9</v>
       </c>
       <c r="B222" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C222">
         <v>500</v>
       </c>
       <c r="D222" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E222">
         <v>400000</v>
@@ -7251,13 +7246,13 @@
         <v>9</v>
       </c>
       <c r="B223" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C223">
         <v>500</v>
       </c>
       <c r="D223" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E223">
         <v>400000</v>
@@ -7274,13 +7269,13 @@
         <v>9</v>
       </c>
       <c r="B224" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C224">
         <v>500</v>
       </c>
       <c r="D224" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E224">
         <v>400000</v>
@@ -7297,7 +7292,7 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C225">
         <v>1100</v>
@@ -7320,7 +7315,7 @@
         <v>9</v>
       </c>
       <c r="B226" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C226">
         <v>30000</v>
@@ -7343,7 +7338,7 @@
         <v>9</v>
       </c>
       <c r="B227" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C227">
         <v>30000</v>
@@ -7366,7 +7361,7 @@
         <v>9</v>
       </c>
       <c r="B228" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C228">
         <v>1500000</v>
@@ -7386,10 +7381,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -7404,7 +7399,7 @@
         <v>1902700000</v>
       </c>
       <c r="G229" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -7412,13 +7407,13 @@
         <v>9</v>
       </c>
       <c r="B230" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C230">
         <v>200</v>
       </c>
       <c r="D230" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E230">
         <v>250000</v>
@@ -7435,13 +7430,13 @@
         <v>9</v>
       </c>
       <c r="B231" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C231">
         <v>200</v>
       </c>
       <c r="D231" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E231">
         <v>100000</v>
@@ -7458,13 +7453,13 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C232">
         <v>500</v>
       </c>
       <c r="D232" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E232">
         <v>290000</v>
@@ -7481,13 +7476,13 @@
         <v>9</v>
       </c>
       <c r="B233" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C233">
         <v>1500</v>
       </c>
       <c r="D233" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E233">
         <v>290000</v>
@@ -7504,13 +7499,13 @@
         <v>9</v>
       </c>
       <c r="B234" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C234">
         <v>20000</v>
       </c>
       <c r="D234" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E234">
         <v>5000</v>
@@ -7527,13 +7522,13 @@
         <v>9</v>
       </c>
       <c r="B235" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C235">
         <v>20000</v>
       </c>
       <c r="D235" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E235">
         <v>5000</v>
@@ -7550,13 +7545,13 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C236">
         <v>20000</v>
       </c>
       <c r="D236" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E236">
         <v>10000</v>
@@ -7573,13 +7568,13 @@
         <v>9</v>
       </c>
       <c r="B237" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C237">
         <v>400</v>
       </c>
       <c r="D237" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E237">
         <v>10000</v>
@@ -7596,13 +7591,13 @@
         <v>9</v>
       </c>
       <c r="B238" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C238">
         <v>60</v>
       </c>
       <c r="D238" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E238">
         <v>290000</v>
@@ -7619,13 +7614,13 @@
         <v>9</v>
       </c>
       <c r="B239" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C239">
         <v>200</v>
       </c>
       <c r="D239" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E239">
         <v>290000</v>
@@ -7642,13 +7637,13 @@
         <v>9</v>
       </c>
       <c r="B240" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C240">
         <v>2600</v>
       </c>
       <c r="D240" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E240">
         <v>65000</v>
@@ -7665,13 +7660,13 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C241">
         <v>60</v>
       </c>
       <c r="D241" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E241">
         <v>290000</v>
@@ -7688,13 +7683,13 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C242">
         <v>150</v>
       </c>
       <c r="D242" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E242">
         <v>290000</v>
@@ -7711,13 +7706,13 @@
         <v>9</v>
       </c>
       <c r="B243" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C243">
         <v>1500</v>
       </c>
       <c r="D243" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E243">
         <v>20000</v>
@@ -7734,13 +7729,13 @@
         <v>9</v>
       </c>
       <c r="B244" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C244">
         <v>1500</v>
       </c>
       <c r="D244" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E244">
         <v>5000</v>
@@ -7757,13 +7752,13 @@
         <v>9</v>
       </c>
       <c r="B245" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C245">
         <v>12</v>
       </c>
       <c r="D245" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E245">
         <v>750000</v>
@@ -7780,13 +7775,13 @@
         <v>9</v>
       </c>
       <c r="B246" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C246">
         <v>48</v>
       </c>
       <c r="D246" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E246">
         <v>700000</v>
@@ -7803,13 +7798,13 @@
         <v>9</v>
       </c>
       <c r="B247" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C247">
         <v>12</v>
       </c>
       <c r="D247" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E247">
         <v>650000</v>
@@ -7826,13 +7821,13 @@
         <v>9</v>
       </c>
       <c r="B248" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C248">
         <v>36</v>
       </c>
       <c r="D248" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E248">
         <v>600000</v>
@@ -7849,13 +7844,13 @@
         <v>9</v>
       </c>
       <c r="B249" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C249">
         <v>24</v>
       </c>
       <c r="D249" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E249">
         <v>500000</v>
@@ -7872,13 +7867,13 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C250">
         <v>155</v>
       </c>
       <c r="D250" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E250">
         <v>500000</v>
@@ -7895,13 +7890,13 @@
         <v>9</v>
       </c>
       <c r="B251" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C251">
         <v>96</v>
       </c>
       <c r="D251" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E251">
         <v>450000</v>
@@ -7918,13 +7913,13 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C252">
         <v>96</v>
       </c>
       <c r="D252" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E252">
         <v>400000</v>
@@ -7941,13 +7936,13 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C253">
         <v>96</v>
       </c>
       <c r="D253" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E253">
         <v>300000</v>
@@ -7964,13 +7959,13 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C254">
         <v>480</v>
       </c>
       <c r="D254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E254">
         <v>300000</v>
@@ -7987,13 +7982,13 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C255">
         <v>90</v>
       </c>
       <c r="D255" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E255">
         <v>1000000</v>
@@ -8007,10 +8002,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B256" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C256">
         <v>0</v>
@@ -8025,7 +8020,7 @@
         <v>595040000</v>
       </c>
       <c r="G256" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -8033,7 +8028,7 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -8056,13 +8051,13 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C258">
         <v>300</v>
       </c>
       <c r="D258" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E258">
         <v>32000</v>
@@ -8079,13 +8074,13 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C259">
         <v>1000</v>
       </c>
       <c r="D259" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E259">
         <v>32000</v>
@@ -8102,7 +8097,7 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -8125,7 +8120,7 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -8148,7 +8143,7 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -8171,7 +8166,7 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -8194,7 +8189,7 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C264">
         <v>2000</v>
@@ -8214,10 +8209,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B265" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C265">
         <v>0</v>
@@ -8232,7 +8227,7 @@
         <v>669000000</v>
       </c>
       <c r="G265" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -8240,7 +8235,7 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -8263,7 +8258,7 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C267">
         <v>32</v>
@@ -8286,7 +8281,7 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C268">
         <v>10</v>
@@ -8309,13 +8304,13 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C269">
         <v>2</v>
       </c>
       <c r="D269" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E269">
         <v>20000000</v>
@@ -8332,13 +8327,13 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C270">
         <v>1000</v>
       </c>
       <c r="D270" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E270">
         <v>10000</v>
@@ -8355,7 +8350,7 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C271">
         <v>15</v>
@@ -8375,10 +8370,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B272" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -8393,7 +8388,7 @@
         <v>124150000</v>
       </c>
       <c r="G272" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -8401,13 +8396,13 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C273">
         <v>16</v>
       </c>
       <c r="D273" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E273">
         <v>1400000</v>
@@ -8424,13 +8419,13 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C274">
         <v>35</v>
       </c>
       <c r="D274" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E274">
         <v>1000000</v>
@@ -8447,13 +8442,13 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C275">
         <v>45</v>
       </c>
       <c r="D275" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E275">
         <v>900000</v>
@@ -8470,13 +8465,13 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C276">
         <v>35</v>
       </c>
       <c r="D276" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E276">
         <v>750000</v>
@@ -8490,10 +8485,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B277" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -8508,7 +8503,7 @@
         <v>845000000</v>
       </c>
       <c r="G277" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -8516,13 +8511,13 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C278">
         <v>40</v>
       </c>
       <c r="D278" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E278">
         <v>6500000</v>
@@ -8539,13 +8534,13 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C279">
         <v>30</v>
       </c>
       <c r="D279" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E279">
         <v>6500000</v>
@@ -8562,13 +8557,13 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C280">
         <v>45</v>
       </c>
       <c r="D280" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E280">
         <v>6500000</v>
@@ -8585,13 +8580,13 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C281">
         <v>15</v>
       </c>
       <c r="D281" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E281">
         <v>6500000</v>
@@ -8605,10 +8600,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B282" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -8623,7 +8618,7 @@
         <v>247500000</v>
       </c>
       <c r="G282" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -8631,13 +8626,13 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C283">
         <v>70</v>
       </c>
       <c r="D283" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E283">
         <v>150000</v>
@@ -8654,13 +8649,13 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C284">
         <v>770</v>
       </c>
       <c r="D284" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E284">
         <v>150000</v>
@@ -8677,13 +8672,13 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C285">
         <v>20</v>
       </c>
       <c r="D285" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E285">
         <v>150000</v>
@@ -8700,13 +8695,13 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C286">
         <v>20</v>
       </c>
       <c r="D286" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E286">
         <v>150000</v>
@@ -8723,13 +8718,13 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C287">
         <v>770</v>
       </c>
       <c r="D287" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E287">
         <v>150000</v>
@@ -8743,10 +8738,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B288" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -8761,7 +8756,7 @@
         <v>128250000</v>
       </c>
       <c r="G288" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -8769,13 +8764,13 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C289">
         <v>90</v>
       </c>
       <c r="D289" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E289">
         <v>750000</v>
@@ -8792,13 +8787,13 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C290">
         <v>90</v>
       </c>
       <c r="D290" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E290">
         <v>150000</v>
@@ -8815,13 +8810,13 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C291">
         <v>30</v>
       </c>
       <c r="D291" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E291">
         <v>150000</v>
@@ -8838,13 +8833,13 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C292">
         <v>45</v>
       </c>
       <c r="D292" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E292">
         <v>750000</v>
@@ -8861,13 +8856,13 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C293">
         <v>45</v>
       </c>
       <c r="D293" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E293">
         <v>150000</v>
@@ -8884,13 +8879,13 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C294">
         <v>15</v>
       </c>
       <c r="D294" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E294">
         <v>150000</v>
@@ -8904,10 +8899,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B295" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -8922,7 +8917,7 @@
         <v>42750000</v>
       </c>
       <c r="G295" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -8930,13 +8925,13 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C296">
         <v>45</v>
       </c>
       <c r="D296" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E296">
         <v>750000</v>
@@ -8953,13 +8948,13 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C297">
         <v>45</v>
       </c>
       <c r="D297" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E297">
         <v>150000</v>
@@ -8976,13 +8971,13 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C298">
         <v>15</v>
       </c>
       <c r="D298" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E298">
         <v>150000</v>
@@ -8996,10 +8991,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B299" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -9014,7 +9009,7 @@
         <v>875000000</v>
       </c>
       <c r="G299" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -9022,13 +9017,13 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C300">
         <v>35</v>
       </c>
       <c r="D300" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E300">
         <v>19400000</v>
@@ -9045,13 +9040,13 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C301">
         <v>20</v>
       </c>
       <c r="D301" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E301">
         <v>6300000</v>
@@ -9068,7 +9063,7 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C302">
         <v>1</v>
@@ -9088,10 +9083,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B303" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -9137,7 +9132,7 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C305">
         <v>380</v>
@@ -9160,7 +9155,7 @@
         <v>9</v>
       </c>
       <c r="B306" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C306">
         <v>7250</v>
@@ -9180,10 +9175,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B307" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -9206,13 +9201,13 @@
         <v>9</v>
       </c>
       <c r="B308" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C308">
         <v>6</v>
       </c>
       <c r="D308" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E308">
         <v>500000</v>
@@ -9229,13 +9224,13 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C309">
         <v>12</v>
       </c>
       <c r="D309" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E309">
         <v>450000</v>
@@ -9252,13 +9247,13 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C310">
         <v>6</v>
       </c>
       <c r="D310" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E310">
         <v>400000</v>
@@ -9275,13 +9270,13 @@
         <v>9</v>
       </c>
       <c r="B311" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C311">
         <v>6</v>
       </c>
       <c r="D311" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E311">
         <v>350000</v>
@@ -9298,13 +9293,13 @@
         <v>9</v>
       </c>
       <c r="B312" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C312">
         <v>32</v>
       </c>
       <c r="D312" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E312">
         <v>300000</v>
@@ -9318,10 +9313,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B313" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -9344,7 +9339,7 @@
         <v>9</v>
       </c>
       <c r="B314" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C314">
         <v>15</v>
@@ -9364,10 +9359,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B315" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -9390,13 +9385,13 @@
         <v>9</v>
       </c>
       <c r="B316" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C316">
         <v>2</v>
       </c>
       <c r="D316" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E316">
         <v>3217000</v>
@@ -9413,13 +9408,13 @@
         <v>9</v>
       </c>
       <c r="B317" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C317">
         <v>4</v>
       </c>
       <c r="D317" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E317">
         <v>792000</v>
@@ -9436,13 +9431,13 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C318">
         <v>6</v>
       </c>
       <c r="D318" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E318">
         <v>446000</v>
@@ -9459,13 +9454,13 @@
         <v>9</v>
       </c>
       <c r="B319" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C319">
         <v>27</v>
       </c>
       <c r="D319" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E319">
         <v>452667</v>
@@ -9482,13 +9477,13 @@
         <v>9</v>
       </c>
       <c r="B320" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C320">
         <v>9</v>
       </c>
       <c r="D320" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E320">
         <v>4938334</v>
@@ -9505,13 +9500,13 @@
         <v>9</v>
       </c>
       <c r="B321" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C321">
         <v>18</v>
       </c>
       <c r="D321" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E321">
         <v>904000</v>
@@ -9525,10 +9520,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B322" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -9551,7 +9546,7 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C323">
         <v>40</v>
@@ -9571,10 +9566,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B324" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -9620,7 +9615,7 @@
         <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C326">
         <v>1300</v>
@@ -9643,7 +9638,7 @@
         <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C327">
         <v>1800</v>
@@ -9666,7 +9661,7 @@
         <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C328">
         <v>500</v>
@@ -9689,7 +9684,7 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C329">
         <v>1550</v>
@@ -9712,7 +9707,7 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C330">
         <v>300</v>
@@ -9735,7 +9730,7 @@
         <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C331">
         <v>150000</v>
@@ -9758,7 +9753,7 @@
         <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C332">
         <v>500</v>
@@ -9781,13 +9776,13 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C333">
         <v>4</v>
       </c>
       <c r="D333" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E333">
         <v>8000000</v>
@@ -9804,7 +9799,7 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C334">
         <v>500</v>
@@ -9827,13 +9822,13 @@
         <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C335">
         <v>550</v>
       </c>
       <c r="D335" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E335">
         <v>35000</v>
@@ -9850,7 +9845,7 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C336">
         <v>550</v>
@@ -9873,13 +9868,13 @@
         <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C337">
         <v>550</v>
       </c>
       <c r="D337" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E337">
         <v>15000</v>
@@ -9896,13 +9891,13 @@
         <v>9</v>
       </c>
       <c r="B338" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C338">
         <v>600</v>
       </c>
       <c r="D338" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E338">
         <v>50000</v>
@@ -9919,7 +9914,7 @@
         <v>9</v>
       </c>
       <c r="B339" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C339">
         <v>525</v>
@@ -9942,13 +9937,13 @@
         <v>9</v>
       </c>
       <c r="B340" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C340">
         <v>15</v>
       </c>
       <c r="D340" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E340">
         <v>800000</v>
@@ -9962,10 +9957,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B341" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -9988,13 +9983,13 @@
         <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C342">
         <v>80</v>
       </c>
       <c r="D342" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E342">
         <v>72000</v>
@@ -10011,7 +10006,7 @@
         <v>9</v>
       </c>
       <c r="B343" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C343">
         <v>80</v>
@@ -10034,7 +10029,7 @@
         <v>9</v>
       </c>
       <c r="B344" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C344">
         <v>550</v>
@@ -10057,7 +10052,7 @@
         <v>9</v>
       </c>
       <c r="B345" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C345">
         <v>3200</v>
@@ -10080,7 +10075,7 @@
         <v>9</v>
       </c>
       <c r="B346" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C346">
         <v>500</v>
@@ -10103,13 +10098,13 @@
         <v>9</v>
       </c>
       <c r="B347" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C347">
         <v>1000</v>
       </c>
       <c r="D347" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E347">
         <v>200000</v>
@@ -10126,13 +10121,13 @@
         <v>9</v>
       </c>
       <c r="B348" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C348">
         <v>850</v>
       </c>
       <c r="D348" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E348">
         <v>200000</v>
@@ -10149,13 +10144,13 @@
         <v>9</v>
       </c>
       <c r="B349" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C349">
         <v>4650</v>
       </c>
       <c r="D349" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E349">
         <v>90000</v>
@@ -10172,13 +10167,13 @@
         <v>9</v>
       </c>
       <c r="B350" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C350">
         <v>64350</v>
       </c>
       <c r="D350" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E350">
         <v>10000</v>
@@ -10195,13 +10190,13 @@
         <v>9</v>
       </c>
       <c r="B351" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C351">
         <v>6</v>
       </c>
       <c r="D351" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E351">
         <v>500000</v>
@@ -10218,13 +10213,13 @@
         <v>9</v>
       </c>
       <c r="B352" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C352">
         <v>12</v>
       </c>
       <c r="D352" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E352">
         <v>450000</v>
@@ -10241,13 +10236,13 @@
         <v>9</v>
       </c>
       <c r="B353" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C353">
         <v>6</v>
       </c>
       <c r="D353" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E353">
         <v>400000</v>
@@ -10264,13 +10259,13 @@
         <v>9</v>
       </c>
       <c r="B354" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C354">
         <v>6</v>
       </c>
       <c r="D354" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E354">
         <v>350000</v>
@@ -10287,13 +10282,13 @@
         <v>9</v>
       </c>
       <c r="B355" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C355">
         <v>32</v>
       </c>
       <c r="D355" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E355">
         <v>300000</v>
@@ -10307,10 +10302,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B356" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -10333,7 +10328,7 @@
         <v>9</v>
       </c>
       <c r="B357" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C357">
         <v>1</v>
@@ -10356,13 +10351,13 @@
         <v>9</v>
       </c>
       <c r="B358" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C358">
         <v>12</v>
       </c>
       <c r="D358" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E358">
         <v>2000000</v>
@@ -10376,10 +10371,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B359" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -10402,7 +10397,7 @@
         <v>9</v>
       </c>
       <c r="B360" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C360">
         <v>7500</v>
@@ -10425,7 +10420,7 @@
         <v>9</v>
       </c>
       <c r="B361" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C361">
         <v>7500</v>
@@ -10448,7 +10443,7 @@
         <v>9</v>
       </c>
       <c r="B362" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C362">
         <v>85000</v>
@@ -10471,13 +10466,13 @@
         <v>9</v>
       </c>
       <c r="B363" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C363">
         <v>300</v>
       </c>
       <c r="D363" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E363">
         <v>40000</v>
@@ -10494,7 +10489,7 @@
         <v>9</v>
       </c>
       <c r="B364" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C364">
         <v>1</v>
@@ -10514,10 +10509,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B365" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -10540,7 +10535,7 @@
         <v>9</v>
       </c>
       <c r="B366" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C366">
         <v>1</v>
@@ -10560,10 +10555,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B367" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C367">
         <v>0</v>
@@ -10586,7 +10581,7 @@
         <v>9</v>
       </c>
       <c r="B368" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C368">
         <v>8</v>
@@ -10609,7 +10604,7 @@
         <v>9</v>
       </c>
       <c r="B369" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C369">
         <v>8</v>
@@ -10632,7 +10627,7 @@
         <v>9</v>
       </c>
       <c r="B370" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C370">
         <v>24</v>
@@ -10655,7 +10650,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C371">
         <v>4</v>
@@ -10675,10 +10670,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B372" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C372">
         <v>0</v>
@@ -10701,13 +10696,13 @@
         <v>9</v>
       </c>
       <c r="B373" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C373">
         <v>14</v>
       </c>
       <c r="D373" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E373">
         <v>507144</v>
@@ -10724,13 +10719,13 @@
         <v>9</v>
       </c>
       <c r="B374" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C374">
         <v>21</v>
       </c>
       <c r="D374" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E374">
         <v>405715</v>
@@ -10747,13 +10742,13 @@
         <v>9</v>
       </c>
       <c r="B375" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C375">
         <v>7</v>
       </c>
       <c r="D375" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E375">
         <v>2387000</v>
@@ -10770,13 +10765,13 @@
         <v>9</v>
       </c>
       <c r="B376" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C376">
         <v>10</v>
       </c>
       <c r="D376" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E376">
         <v>6000000</v>
@@ -10790,10 +10785,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B377" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C377">
         <v>0</v>
@@ -10816,7 +10811,7 @@
         <v>9</v>
       </c>
       <c r="B378" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C378">
         <v>140</v>
@@ -10839,7 +10834,7 @@
         <v>9</v>
       </c>
       <c r="B379" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C379">
         <v>140</v>
@@ -10859,10 +10854,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B380" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C380">
         <v>0</v>
@@ -10885,13 +10880,13 @@
         <v>9</v>
       </c>
       <c r="B381" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C381">
         <v>100</v>
       </c>
       <c r="D381" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E381">
         <v>1800000</v>
@@ -10905,16 +10900,16 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B382" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C382">
         <v>12</v>
       </c>
       <c r="D382" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E382">
         <v>0</v>
@@ -10928,10 +10923,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B383" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C383">
         <v>0</v>
@@ -10951,10 +10946,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B384" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C384">
         <v>0</v>
@@ -10974,10 +10969,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B385" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C385">
         <v>0</v>
@@ -11000,13 +10995,13 @@
         <v>9</v>
       </c>
       <c r="B386" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C386">
         <v>1</v>
       </c>
       <c r="D386" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E386">
         <v>4671003000</v>
@@ -11023,13 +11018,13 @@
         <v>9</v>
       </c>
       <c r="B387" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C387">
         <v>1</v>
       </c>
       <c r="D387" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E387">
         <v>389251000</v>
@@ -11046,13 +11041,13 @@
         <v>9</v>
       </c>
       <c r="B388" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C388">
         <v>1</v>
       </c>
       <c r="D388" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E388">
         <v>389251000</v>
@@ -11066,10 +11061,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B389" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C389">
         <v>0</v>
@@ -11092,13 +11087,13 @@
         <v>9</v>
       </c>
       <c r="B390" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C390">
         <v>1</v>
       </c>
       <c r="D390" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E390">
         <v>63000</v>
@@ -11115,13 +11110,13 @@
         <v>9</v>
       </c>
       <c r="B391" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C391">
         <v>1</v>
       </c>
       <c r="D391" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E391">
         <v>6000</v>
@@ -11138,13 +11133,13 @@
         <v>9</v>
       </c>
       <c r="B392" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C392">
         <v>1</v>
       </c>
       <c r="D392" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E392">
         <v>6000</v>
@@ -11158,10 +11153,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B393" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C393">
         <v>0</v>
@@ -11184,13 +11179,13 @@
         <v>9</v>
       </c>
       <c r="B394" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C394">
         <v>1</v>
       </c>
       <c r="D394" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E394">
         <v>319630000</v>
@@ -11207,13 +11202,13 @@
         <v>9</v>
       </c>
       <c r="B395" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C395">
         <v>1</v>
       </c>
       <c r="D395" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E395">
         <v>26636000</v>
@@ -11230,13 +11225,13 @@
         <v>9</v>
       </c>
       <c r="B396" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C396">
         <v>1</v>
       </c>
       <c r="D396" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E396">
         <v>26636000</v>
@@ -11250,10 +11245,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B397" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C397">
         <v>0</v>
@@ -11276,13 +11271,13 @@
         <v>9</v>
       </c>
       <c r="B398" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C398">
         <v>1</v>
       </c>
       <c r="D398" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E398">
         <v>98208000</v>
@@ -11299,13 +11294,13 @@
         <v>9</v>
       </c>
       <c r="B399" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C399">
         <v>1</v>
       </c>
       <c r="D399" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E399">
         <v>8184000</v>
@@ -11322,13 +11317,13 @@
         <v>9</v>
       </c>
       <c r="B400" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C400">
         <v>1</v>
       </c>
       <c r="D400" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E400">
         <v>8184000</v>
@@ -11342,10 +11337,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B401" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C401">
         <v>0</v>
@@ -11368,13 +11363,13 @@
         <v>9</v>
       </c>
       <c r="B402" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C402">
         <v>1</v>
       </c>
       <c r="D402" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E402">
         <v>88680000</v>
@@ -11391,13 +11386,13 @@
         <v>9</v>
       </c>
       <c r="B403" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C403">
         <v>1</v>
       </c>
       <c r="D403" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E403">
         <v>7390000</v>
@@ -11414,13 +11409,13 @@
         <v>9</v>
       </c>
       <c r="B404" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C404">
         <v>1</v>
       </c>
       <c r="D404" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E404">
         <v>7390000</v>
@@ -11434,10 +11429,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B405" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -11460,13 +11455,13 @@
         <v>9</v>
       </c>
       <c r="B406" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C406">
         <v>1</v>
       </c>
       <c r="D406" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E406">
         <v>456480000</v>
@@ -11483,13 +11478,13 @@
         <v>9</v>
       </c>
       <c r="B407" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C407">
         <v>1</v>
       </c>
       <c r="D407" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E407">
         <v>38040000</v>
@@ -11506,13 +11501,13 @@
         <v>9</v>
       </c>
       <c r="B408" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C408">
         <v>1</v>
       </c>
       <c r="D408" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E408">
         <v>38040000</v>
@@ -11526,10 +11521,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B409" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C409">
         <v>0</v>
@@ -11552,13 +11547,13 @@
         <v>9</v>
       </c>
       <c r="B410" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C410">
         <v>1</v>
       </c>
       <c r="D410" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E410">
         <v>54980000</v>
@@ -11575,13 +11570,13 @@
         <v>9</v>
       </c>
       <c r="B411" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C411">
         <v>1</v>
       </c>
       <c r="D411" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E411">
         <v>4582000</v>
@@ -11598,13 +11593,13 @@
         <v>9</v>
       </c>
       <c r="B412" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C412">
         <v>1</v>
       </c>
       <c r="D412" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E412">
         <v>4582000</v>
@@ -11618,10 +11613,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B413" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C413">
         <v>0</v>
@@ -11644,13 +11639,13 @@
         <v>9</v>
       </c>
       <c r="B414" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C414">
         <v>1</v>
       </c>
       <c r="D414" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E414">
         <v>280003000</v>
@@ -11664,10 +11659,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B415" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C415">
         <v>0</v>
@@ -11690,13 +11685,13 @@
         <v>9</v>
       </c>
       <c r="B416" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C416">
         <v>1</v>
       </c>
       <c r="D416" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E416">
         <v>879120000</v>
@@ -11710,10 +11705,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B417" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C417">
         <v>0</v>
@@ -11736,13 +11731,13 @@
         <v>9</v>
       </c>
       <c r="B418" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C418">
         <v>1</v>
       </c>
       <c r="D418" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E418">
         <v>93060000</v>
@@ -11759,13 +11754,13 @@
         <v>9</v>
       </c>
       <c r="B419" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C419">
         <v>1</v>
       </c>
       <c r="D419" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E419">
         <v>7755000</v>
@@ -11782,13 +11777,13 @@
         <v>9</v>
       </c>
       <c r="B420" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C420">
         <v>1</v>
       </c>
       <c r="D420" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E420">
         <v>7755000</v>
@@ -11802,10 +11797,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B421" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C421">
         <v>0</v>
@@ -11828,13 +11823,13 @@
         <v>9</v>
       </c>
       <c r="B422" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
       <c r="D422" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E422">
         <v>980000000</v>
@@ -11848,10 +11843,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B423" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C423">
         <v>0</v>
@@ -11874,13 +11869,13 @@
         <v>9</v>
       </c>
       <c r="B424" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C424">
         <v>1</v>
       </c>
       <c r="D424" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E424">
         <v>178214000</v>
@@ -11894,10 +11889,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B425" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C425">
         <v>0</v>
@@ -11920,13 +11915,13 @@
         <v>9</v>
       </c>
       <c r="B426" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C426">
         <v>1</v>
       </c>
       <c r="D426" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E426">
         <v>5179683000</v>
@@ -11940,10 +11935,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B427" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C427">
         <v>0</v>
@@ -11963,10 +11958,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B428" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C428">
         <v>0</v>
@@ -11986,10 +11981,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B429" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C429">
         <v>0</v>
@@ -12012,7 +12007,7 @@
         <v>9</v>
       </c>
       <c r="B430" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C430">
         <v>6240</v>
@@ -12035,7 +12030,7 @@
         <v>9</v>
       </c>
       <c r="B431" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C431">
         <v>12</v>
@@ -12055,10 +12050,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B432" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C432">
         <v>0</v>
@@ -12081,7 +12076,7 @@
         <v>9</v>
       </c>
       <c r="B433" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C433">
         <v>45</v>
@@ -12101,10 +12096,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B434" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -12124,10 +12119,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B435" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C435">
         <v>0</v>
@@ -12150,13 +12145,13 @@
         <v>9</v>
       </c>
       <c r="B436" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C436">
         <v>5</v>
       </c>
       <c r="D436" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E436">
         <v>590000</v>
@@ -12173,13 +12168,13 @@
         <v>9</v>
       </c>
       <c r="B437" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C437">
         <v>11</v>
       </c>
       <c r="D437" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E437">
         <v>1200000</v>
@@ -12196,13 +12191,13 @@
         <v>9</v>
       </c>
       <c r="B438" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
       <c r="D438" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E438">
         <v>590000</v>
@@ -12219,13 +12214,13 @@
         <v>9</v>
       </c>
       <c r="B439" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C439">
         <v>1</v>
       </c>
       <c r="D439" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E439">
         <v>590000</v>
@@ -12242,13 +12237,13 @@
         <v>9</v>
       </c>
       <c r="B440" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C440">
         <v>19</v>
       </c>
       <c r="D440" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E440">
         <v>590000</v>
@@ -12265,13 +12260,13 @@
         <v>9</v>
       </c>
       <c r="B441" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C441">
         <v>1</v>
       </c>
       <c r="D441" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E441">
         <v>590000</v>
@@ -12288,13 +12283,13 @@
         <v>9</v>
       </c>
       <c r="B442" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C442">
         <v>115</v>
       </c>
       <c r="D442" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E442">
         <v>360000</v>
@@ -12308,10 +12303,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B443" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C443">
         <v>0</v>
@@ -12331,10 +12326,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B444" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C444">
         <v>0</v>
@@ -12357,13 +12352,13 @@
         <v>9</v>
       </c>
       <c r="B445" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C445">
         <v>7500</v>
       </c>
       <c r="D445" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E445">
         <v>100000</v>
@@ -12380,13 +12375,13 @@
         <v>9</v>
       </c>
       <c r="B446" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C446">
         <v>3544</v>
       </c>
       <c r="D446" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E446">
         <v>11000</v>
@@ -12400,10 +12395,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B447" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C447">
         <v>0</v>
@@ -12426,7 +12421,7 @@
         <v>9</v>
       </c>
       <c r="B448" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C448">
         <v>1</v>
@@ -12446,10 +12441,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B449" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C449">
         <v>0</v>
@@ -12469,10 +12464,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B450" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C450">
         <v>0</v>
@@ -12495,13 +12490,13 @@
         <v>9</v>
       </c>
       <c r="B451" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C451">
         <v>11</v>
       </c>
       <c r="D451" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E451">
         <v>1050000</v>
@@ -12518,13 +12513,13 @@
         <v>9</v>
       </c>
       <c r="B452" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C452">
         <v>2</v>
       </c>
       <c r="D452" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E452">
         <v>140000</v>
@@ -12538,10 +12533,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B453" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C453">
         <v>0</v>
@@ -12564,13 +12559,13 @@
         <v>9</v>
       </c>
       <c r="B454" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C454">
         <v>1</v>
       </c>
       <c r="D454" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E454">
         <v>28730000</v>
@@ -12587,13 +12582,13 @@
         <v>9</v>
       </c>
       <c r="B455" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C455">
         <v>9</v>
       </c>
       <c r="D455" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E455">
         <v>23650000</v>
@@ -12610,13 +12605,13 @@
         <v>9</v>
       </c>
       <c r="B456" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C456">
         <v>1</v>
       </c>
       <c r="D456" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E456">
         <v>27110000</v>
@@ -12633,13 +12628,13 @@
         <v>9</v>
       </c>
       <c r="B457" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C457">
         <v>2</v>
       </c>
       <c r="D457" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E457">
         <v>3640000</v>
@@ -12653,10 +12648,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B458" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C458">
         <v>0</v>
@@ -12679,7 +12674,7 @@
         <v>9</v>
       </c>
       <c r="B459" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C459">
         <v>1</v>
@@ -12699,10 +12694,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B460" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C460">
         <v>0</v>
@@ -12722,10 +12717,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B461" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C461">
         <v>0</v>
@@ -12748,13 +12743,13 @@
         <v>9</v>
       </c>
       <c r="B462" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C462">
         <v>2</v>
       </c>
       <c r="D462" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E462">
         <v>10780000</v>
@@ -12771,7 +12766,7 @@
         <v>9</v>
       </c>
       <c r="B463" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C463">
         <v>11</v>
@@ -12794,7 +12789,7 @@
         <v>9</v>
       </c>
       <c r="B464" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C464">
         <v>1</v>
@@ -12817,7 +12812,7 @@
         <v>9</v>
       </c>
       <c r="B465" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C465">
         <v>2</v>
@@ -12840,7 +12835,7 @@
         <v>9</v>
       </c>
       <c r="B466" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C466">
         <v>6</v>
@@ -12863,7 +12858,7 @@
         <v>9</v>
       </c>
       <c r="B467" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -12886,7 +12881,7 @@
         <v>9</v>
       </c>
       <c r="B468" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -12909,7 +12904,7 @@
         <v>9</v>
       </c>
       <c r="B469" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C469">
         <v>2</v>
@@ -12932,7 +12927,7 @@
         <v>9</v>
       </c>
       <c r="B470" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C470">
         <v>47</v>
@@ -12955,7 +12950,7 @@
         <v>9</v>
       </c>
       <c r="B471" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C471">
         <v>1</v>
@@ -12978,13 +12973,13 @@
         <v>9</v>
       </c>
       <c r="B472" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C472">
         <v>1</v>
       </c>
       <c r="D472" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E472">
         <v>7000000</v>
@@ -13001,7 +12996,7 @@
         <v>9</v>
       </c>
       <c r="B473" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C473">
         <v>20</v>
@@ -13024,7 +13019,7 @@
         <v>9</v>
       </c>
       <c r="B474" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C474">
         <v>15</v>
@@ -13047,13 +13042,13 @@
         <v>9</v>
       </c>
       <c r="B475" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C475">
         <v>171</v>
       </c>
       <c r="D475" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E475">
         <v>510000</v>
@@ -13070,7 +13065,7 @@
         <v>9</v>
       </c>
       <c r="B476" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C476">
         <v>25</v>
@@ -13093,7 +13088,7 @@
         <v>9</v>
       </c>
       <c r="B477" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C477">
         <v>3</v>
@@ -13116,7 +13111,7 @@
         <v>9</v>
       </c>
       <c r="B478" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C478">
         <v>1</v>
@@ -13139,7 +13134,7 @@
         <v>9</v>
       </c>
       <c r="B479" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C479">
         <v>50</v>
@@ -13162,7 +13157,7 @@
         <v>9</v>
       </c>
       <c r="B480" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C480">
         <v>55</v>
@@ -13185,7 +13180,7 @@
         <v>9</v>
       </c>
       <c r="B481" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C481">
         <v>2</v>
@@ -13208,13 +13203,13 @@
         <v>9</v>
       </c>
       <c r="B482" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C482">
         <v>2000</v>
       </c>
       <c r="D482" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E482">
         <v>12000</v>
@@ -13231,13 +13226,13 @@
         <v>9</v>
       </c>
       <c r="B483" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C483">
         <v>8</v>
       </c>
       <c r="D483" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E483">
         <v>3800000</v>
@@ -13251,10 +13246,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B484" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C484">
         <v>0</v>
@@ -13277,7 +13272,7 @@
         <v>9</v>
       </c>
       <c r="B485" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C485">
         <v>1</v>
@@ -13297,10 +13292,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B486" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C486">
         <v>0</v>
@@ -13320,10 +13315,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B487" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C487">
         <v>0</v>
@@ -13346,13 +13341,13 @@
         <v>9</v>
       </c>
       <c r="B488" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C488">
         <v>12</v>
       </c>
       <c r="D488" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E488">
         <v>1050000</v>
@@ -13366,10 +13361,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B489" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C489">
         <v>0</v>
@@ -13392,13 +13387,13 @@
         <v>9</v>
       </c>
       <c r="B490" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C490">
         <v>12</v>
       </c>
       <c r="D490" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E490">
         <v>450000</v>
@@ -13415,7 +13410,7 @@
         <v>9</v>
       </c>
       <c r="B491" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C491">
         <v>500</v>
@@ -13438,13 +13433,13 @@
         <v>9</v>
       </c>
       <c r="B492" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C492">
         <v>1</v>
       </c>
       <c r="D492" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E492">
         <v>199000000</v>
@@ -13461,13 +13456,13 @@
         <v>9</v>
       </c>
       <c r="B493" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C493">
         <v>12</v>
       </c>
       <c r="D493" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E493">
         <v>4600000</v>
@@ -13484,7 +13479,7 @@
         <v>9</v>
       </c>
       <c r="B494" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C494">
         <v>116</v>
@@ -13507,7 +13502,7 @@
         <v>9</v>
       </c>
       <c r="B495" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C495">
         <v>1</v>
@@ -13530,7 +13525,7 @@
         <v>9</v>
       </c>
       <c r="B496" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C496">
         <v>25</v>
@@ -13553,7 +13548,7 @@
         <v>9</v>
       </c>
       <c r="B497" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C497">
         <v>70</v>
@@ -13576,7 +13571,7 @@
         <v>9</v>
       </c>
       <c r="B498" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C498">
         <v>21</v>
@@ -13599,7 +13594,7 @@
         <v>9</v>
       </c>
       <c r="B499" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C499">
         <v>14</v>
@@ -13622,7 +13617,7 @@
         <v>9</v>
       </c>
       <c r="B500" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C500">
         <v>14</v>
@@ -13645,7 +13640,7 @@
         <v>9</v>
       </c>
       <c r="B501" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C501">
         <v>14</v>
@@ -13668,7 +13663,7 @@
         <v>9</v>
       </c>
       <c r="B502" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C502">
         <v>114</v>
@@ -13691,7 +13686,7 @@
         <v>9</v>
       </c>
       <c r="B503" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C503">
         <v>42</v>
@@ -13714,13 +13709,13 @@
         <v>9</v>
       </c>
       <c r="B504" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C504">
         <v>6</v>
       </c>
       <c r="D504" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E504">
         <v>75000000</v>
@@ -13737,13 +13732,13 @@
         <v>9</v>
       </c>
       <c r="B505" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C505">
         <v>6</v>
       </c>
       <c r="D505" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E505">
         <v>60000000</v>
@@ -13757,10 +13752,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B506" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C506">
         <v>0</v>
@@ -13783,13 +13778,13 @@
         <v>9</v>
       </c>
       <c r="B507" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C507">
         <v>12</v>
       </c>
       <c r="D507" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E507">
         <v>115000000</v>
@@ -13803,10 +13798,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B508" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C508">
         <v>0</v>
@@ -13829,13 +13824,13 @@
         <v>9</v>
       </c>
       <c r="B509" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C509">
         <v>12</v>
       </c>
       <c r="D509" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E509">
         <v>2500000</v>
@@ -13849,10 +13844,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B510" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C510">
         <v>0</v>
@@ -13875,13 +13870,13 @@
         <v>9</v>
       </c>
       <c r="B511" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C511">
         <v>12</v>
       </c>
       <c r="D511" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E511">
         <v>14000000</v>
@@ -13895,10 +13890,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B512" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C512">
         <v>0</v>
@@ -13921,7 +13916,7 @@
         <v>9</v>
       </c>
       <c r="B513" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C513">
         <v>12</v>
@@ -13941,10 +13936,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B514" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C514">
         <v>0</v>
@@ -13964,10 +13959,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B515" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -13990,7 +13985,7 @@
         <v>9</v>
       </c>
       <c r="B516" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C516">
         <v>12</v>
@@ -14013,7 +14008,7 @@
         <v>9</v>
       </c>
       <c r="B517" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C517">
         <v>12</v>
@@ -14036,7 +14031,7 @@
         <v>9</v>
       </c>
       <c r="B518" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C518">
         <v>12</v>
@@ -14059,7 +14054,7 @@
         <v>9</v>
       </c>
       <c r="B519" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C519">
         <v>12</v>
@@ -14082,7 +14077,7 @@
         <v>9</v>
       </c>
       <c r="B520" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C520">
         <v>12</v>
@@ -14105,7 +14100,7 @@
         <v>9</v>
       </c>
       <c r="B521" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C521">
         <v>12</v>
@@ -14128,7 +14123,7 @@
         <v>9</v>
       </c>
       <c r="B522" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C522">
         <v>12</v>
@@ -14151,7 +14146,7 @@
         <v>9</v>
       </c>
       <c r="B523" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C523">
         <v>12</v>
@@ -14174,7 +14169,7 @@
         <v>9</v>
       </c>
       <c r="B524" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C524">
         <v>12</v>
@@ -14197,7 +14192,7 @@
         <v>9</v>
       </c>
       <c r="B525" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C525">
         <v>12</v>
@@ -14220,7 +14215,7 @@
         <v>9</v>
       </c>
       <c r="B526" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C526">
         <v>24</v>
@@ -14243,7 +14238,7 @@
         <v>9</v>
       </c>
       <c r="B527" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C527">
         <v>24</v>
@@ -14266,7 +14261,7 @@
         <v>9</v>
       </c>
       <c r="B528" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C528">
         <v>12</v>
@@ -14289,7 +14284,7 @@
         <v>9</v>
       </c>
       <c r="B529" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C529">
         <v>12</v>
@@ -14312,7 +14307,7 @@
         <v>9</v>
       </c>
       <c r="B530" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C530">
         <v>12</v>
@@ -14335,7 +14330,7 @@
         <v>9</v>
       </c>
       <c r="B531" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C531">
         <v>12</v>
@@ -14355,10 +14350,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B532" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C532">
         <v>0</v>
@@ -14378,10 +14373,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B533" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C533">
         <v>0</v>
@@ -14401,16 +14396,16 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B534" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C534">
         <v>1</v>
       </c>
       <c r="D534" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E534">
         <v>0</v>
@@ -14424,10 +14419,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B535" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C535">
         <v>0</v>
@@ -14447,10 +14442,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B536" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C536">
         <v>0</v>
@@ -14470,10 +14465,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B537" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -14496,13 +14491,13 @@
         <v>9</v>
       </c>
       <c r="B538" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C538">
         <v>9</v>
       </c>
       <c r="D538" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E538">
         <v>2000000</v>
@@ -14516,10 +14511,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B539" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -14539,10 +14534,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B540" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C540">
         <v>0</v>
@@ -14562,10 +14557,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B541" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C541">
         <v>0</v>
@@ -14588,13 +14583,13 @@
         <v>9</v>
       </c>
       <c r="B542" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C542">
         <v>50</v>
       </c>
       <c r="D542" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E542">
         <v>14500000</v>
@@ -14603,6 +14598,98 @@
         <v>725000000</v>
       </c>
       <c r="G542" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>9</v>
+      </c>
+      <c r="B543" t="s">
+        <v>592</v>
+      </c>
+      <c r="C543">
+        <v>50</v>
+      </c>
+      <c r="D543" t="s">
+        <v>210</v>
+      </c>
+      <c r="E543">
+        <v>1500000</v>
+      </c>
+      <c r="F543">
+        <v>75000000</v>
+      </c>
+      <c r="G543" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>466</v>
+      </c>
+      <c r="B544" t="s">
+        <v>593</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544" t="s">
+        <v>9</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>150000000</v>
+      </c>
+      <c r="G544" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>325</v>
+      </c>
+      <c r="B545" t="s">
+        <v>326</v>
+      </c>
+      <c r="C545">
+        <v>0</v>
+      </c>
+      <c r="D545" t="s">
+        <v>9</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>150000000</v>
+      </c>
+      <c r="G545" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>9</v>
+      </c>
+      <c r="B546" t="s">
+        <v>594</v>
+      </c>
+      <c r="C546">
+        <v>50</v>
+      </c>
+      <c r="D546" t="s">
+        <v>210</v>
+      </c>
+      <c r="E546">
+        <v>3000000</v>
+      </c>
+      <c r="F546">
+        <v>150000000</v>
+      </c>
+      <c r="G546" t="s">
         <v>9</v>
       </c>
     </row>
